--- a/document/장사는돈관리다1.xlsx
+++ b/document/장사는돈관리다1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmg\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aodrl\Desktop\project\CMW_V2\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA5E9906-1E51-4F2C-8962-ACD48481CC98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="3"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="용어정리" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
   <externalReferences>
     <externalReference r:id="rId5"/>
   </externalReferences>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -699,7 +700,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="#,##0_ "/>
     <numFmt numFmtId="177" formatCode="#,##0_);[Red]\(#,##0\)"/>
@@ -1751,30 +1752,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:L36"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="I31" sqref="I31:J31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="4.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.19921875" style="1" customWidth="1"/>
     <col min="2" max="3" width="3" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="68.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="80.75" style="1" customWidth="1"/>
-    <col min="11" max="11" width="3.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.8984375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.3984375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="68.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.8984375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.8984375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.3984375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="80.69921875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="3.59765625" style="1" customWidth="1"/>
     <col min="12" max="12" width="3" style="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -1787,11 +1788,11 @@
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B3" s="6"/>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" spans="2:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="6"/>
       <c r="E4" s="56" t="s">
         <v>0</v>
@@ -1803,7 +1804,7 @@
       <c r="K4" s="5"/>
       <c r="L4" s="6"/>
     </row>
-    <row r="5" spans="2:12" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:12" ht="21" x14ac:dyDescent="0.4">
       <c r="B5" s="6"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -1815,7 +1816,7 @@
       <c r="K5" s="4"/>
       <c r="L5" s="6"/>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B6" s="6"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
@@ -1828,7 +1829,7 @@
       <c r="K6" s="8"/>
       <c r="L6" s="6"/>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B7" s="6"/>
       <c r="C7" s="8"/>
       <c r="D7" s="51" t="s">
@@ -1845,7 +1846,7 @@
       <c r="K7" s="9"/>
       <c r="L7" s="6"/>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B8" s="6"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
@@ -1862,7 +1863,7 @@
       <c r="K8" s="9"/>
       <c r="L8" s="6"/>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B9" s="6"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
@@ -1879,7 +1880,7 @@
       <c r="K9" s="9"/>
       <c r="L9" s="6"/>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B10" s="6"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -1896,7 +1897,7 @@
       <c r="K10" s="9"/>
       <c r="L10" s="6"/>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B11" s="6"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
@@ -1913,7 +1914,7 @@
       <c r="K11" s="9"/>
       <c r="L11" s="6"/>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B12" s="6"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
@@ -1928,7 +1929,7 @@
       <c r="K12" s="8"/>
       <c r="L12" s="6"/>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B13" s="6"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -1943,7 +1944,7 @@
       <c r="K13" s="9"/>
       <c r="L13" s="6"/>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B14" s="6"/>
       <c r="C14" s="8"/>
       <c r="D14" s="52" t="s">
@@ -1960,7 +1961,7 @@
       <c r="K14" s="9"/>
       <c r="L14" s="6"/>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B15" s="6"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
@@ -1977,7 +1978,7 @@
       <c r="K15" s="9"/>
       <c r="L15" s="6"/>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B16" s="6"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
@@ -1992,7 +1993,7 @@
       <c r="K16" s="9"/>
       <c r="L16" s="6"/>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B17" s="6"/>
       <c r="C17" s="8"/>
       <c r="D17" s="52" t="s">
@@ -2009,7 +2010,7 @@
       <c r="K17" s="9"/>
       <c r="L17" s="6"/>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B18" s="6"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
@@ -2026,7 +2027,7 @@
       <c r="K18" s="9"/>
       <c r="L18" s="6"/>
     </row>
-    <row r="19" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="6"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
@@ -2041,7 +2042,7 @@
       <c r="K19" s="8"/>
       <c r="L19" s="6"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B20" s="6"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
@@ -2056,7 +2057,7 @@
       <c r="K20" s="9"/>
       <c r="L20" s="6"/>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B21" s="6"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -2071,7 +2072,7 @@
       <c r="K21" s="9"/>
       <c r="L21" s="6"/>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B22" s="6"/>
       <c r="C22" s="8"/>
       <c r="D22" s="52" t="s">
@@ -2086,7 +2087,7 @@
       <c r="K22" s="8"/>
       <c r="L22" s="6"/>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B23" s="6"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
@@ -2103,7 +2104,7 @@
       <c r="K23" s="9"/>
       <c r="L23" s="6"/>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B24" s="6"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
@@ -2120,7 +2121,7 @@
       <c r="K24" s="9"/>
       <c r="L24" s="6"/>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B25" s="6"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
@@ -2135,7 +2136,7 @@
       <c r="K25" s="9"/>
       <c r="L25" s="6"/>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B26" s="6"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
@@ -2148,7 +2149,7 @@
       <c r="K26" s="9"/>
       <c r="L26" s="6"/>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B27" s="6"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
@@ -2163,7 +2164,7 @@
       <c r="K27" s="9"/>
       <c r="L27" s="6"/>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B28" s="6"/>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
@@ -2178,7 +2179,7 @@
       <c r="K28" s="9"/>
       <c r="L28" s="6"/>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B29" s="6"/>
       <c r="C29" s="8"/>
       <c r="D29" s="52" t="s">
@@ -2193,7 +2194,7 @@
       <c r="K29" s="8"/>
       <c r="L29" s="6"/>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B30" s="6"/>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
@@ -2210,7 +2211,7 @@
       <c r="K30" s="9"/>
       <c r="L30" s="6"/>
     </row>
-    <row r="31" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="6"/>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
@@ -2227,7 +2228,7 @@
       <c r="K31" s="9"/>
       <c r="L31" s="6"/>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B32" s="6"/>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
@@ -2242,7 +2243,7 @@
       <c r="K32" s="9"/>
       <c r="L32" s="6"/>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B33" s="6"/>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
@@ -2255,7 +2256,7 @@
       <c r="K33" s="8"/>
       <c r="L33" s="6"/>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B34" s="6"/>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
@@ -2268,7 +2269,7 @@
       <c r="K34" s="8"/>
       <c r="L34" s="6"/>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
@@ -2281,7 +2282,7 @@
       <c r="K35" s="6"/>
       <c r="L35" s="6"/>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.4">
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
     </row>
@@ -2327,49 +2328,49 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D7:F7" location="비용!A1" display="1. 계산 전 개념 정리 '비용과 고정비, 변동비'"/>
-    <hyperlink ref="E18:F18" location="한계이익!A1" display="한계이익 = 매출액 - 변동비"/>
-    <hyperlink ref="E23:F23" location="한계이익!A1" display="한계이익률(%) = 한계이익금 / 매출액(판매가격) x 100"/>
-    <hyperlink ref="E30:F30" location="한계이익!A1" display="손익분기점 매출액 = 고정비 / 한계이익률"/>
+    <hyperlink ref="D7:F7" location="비용!A1" display="1. 계산 전 개념 정리 '비용과 고정비, 변동비'" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E18:F18" location="한계이익!A1" display="한계이익 = 매출액 - 변동비" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E23:F23" location="한계이익!A1" display="한계이익률(%) = 한계이익금 / 매출액(판매가격) x 100" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E30:F30" location="한계이익!A1" display="손익분기점 매출액 = 고정비 / 한계이익률" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:V28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D17" sqref="D17:E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="25.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="3"/>
     <col min="4" max="4" width="5" style="12" customWidth="1"/>
-    <col min="5" max="5" width="12.125" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.09765625" style="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5" style="1" customWidth="1"/>
     <col min="7" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.875" style="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="9.125" style="13" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.125" style="13" customWidth="1"/>
-    <col min="13" max="13" width="12.125" style="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.125" style="14" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="13.625" style="15" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="9.8984375" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="9.09765625" style="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.09765625" style="13" customWidth="1"/>
+    <col min="13" max="13" width="12.09765625" style="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.09765625" style="14" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="13.59765625" style="15" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="5.5" style="1" customWidth="1"/>
-    <col min="17" max="17" width="5.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.25" style="14" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.25" style="14" customWidth="1"/>
+    <col min="17" max="17" width="5.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.19921875" style="14" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.19921875" style="14" customWidth="1"/>
     <col min="20" max="20" width="11" style="14" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.25" style="14" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.875" style="15" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.19921875" style="14" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.8984375" style="15" bestFit="1" customWidth="1"/>
     <col min="23" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:22" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:22" ht="21" x14ac:dyDescent="0.4">
       <c r="B3" s="57" t="s">
         <v>37</v>
       </c>
@@ -2377,7 +2378,7 @@
       <c r="D3" s="57"/>
       <c r="E3" s="57"/>
     </row>
-    <row r="5" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:22" x14ac:dyDescent="0.4">
       <c r="B5" s="1" t="s">
         <v>38</v>
       </c>
@@ -2403,7 +2404,7 @@
       </c>
       <c r="V5" s="68"/>
     </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:22" x14ac:dyDescent="0.4">
       <c r="B6" s="69" t="s">
         <v>51</v>
       </c>
@@ -2458,7 +2459,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:22" x14ac:dyDescent="0.4">
       <c r="B7" s="66" t="s">
         <v>39</v>
       </c>
@@ -2519,7 +2520,7 @@
         <v>913301.54</v>
       </c>
     </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:22" x14ac:dyDescent="0.4">
       <c r="B8" s="16" t="s">
         <v>41</v>
       </c>
@@ -2582,7 +2583,7 @@
         <v>1558727.74</v>
       </c>
     </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:22" x14ac:dyDescent="0.4">
       <c r="B9" s="17" t="s">
         <v>81</v>
       </c>
@@ -2645,7 +2646,7 @@
         <v>1747732.57</v>
       </c>
     </row>
-    <row r="10" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:22" x14ac:dyDescent="0.4">
       <c r="B10" s="17" t="s">
         <v>42</v>
       </c>
@@ -2711,7 +2712,7 @@
         <v>4219761.8500000006</v>
       </c>
     </row>
-    <row r="11" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:22" x14ac:dyDescent="0.4">
       <c r="B11" s="17" t="s">
         <v>43</v>
       </c>
@@ -2754,7 +2755,7 @@
         <v>21887176</v>
       </c>
     </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:22" x14ac:dyDescent="0.4">
       <c r="B12" s="17" t="s">
         <v>44</v>
       </c>
@@ -2797,7 +2798,7 @@
         <v>3348840</v>
       </c>
     </row>
-    <row r="13" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:22" x14ac:dyDescent="0.4">
       <c r="B13" s="17" t="s">
         <v>45</v>
       </c>
@@ -2840,7 +2841,7 @@
         <v>4654320</v>
       </c>
     </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:22" x14ac:dyDescent="0.4">
       <c r="B14" s="17" t="s">
         <v>46</v>
       </c>
@@ -2883,7 +2884,7 @@
         <v>529452</v>
       </c>
     </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:22" x14ac:dyDescent="0.4">
       <c r="B15" s="17" t="s">
         <v>47</v>
       </c>
@@ -2926,7 +2927,7 @@
         <v>10010514</v>
       </c>
     </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:22" x14ac:dyDescent="0.4">
       <c r="B16" s="17" t="s">
         <v>50</v>
       </c>
@@ -2964,7 +2965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B17" s="18" t="s">
         <v>52</v>
       </c>
@@ -3008,7 +3009,7 @@
         <v>1335574</v>
       </c>
     </row>
-    <row r="18" spans="2:15" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:15" ht="19.2" x14ac:dyDescent="0.4">
       <c r="B18" s="62" t="s">
         <v>48</v>
       </c>
@@ -3050,7 +3051,7 @@
         <v>17459231</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B19" s="63"/>
       <c r="C19" s="63"/>
       <c r="D19" s="61"/>
@@ -3087,7 +3088,7 @@
         <v>2410975</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B20" s="63"/>
       <c r="C20" s="63"/>
       <c r="D20" s="61"/>
@@ -3124,7 +3125,7 @@
         <v>224445</v>
       </c>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B21" s="63"/>
       <c r="C21" s="63"/>
       <c r="D21" s="61"/>
@@ -3161,7 +3162,7 @@
         <v>381726</v>
       </c>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B22" s="3"/>
       <c r="G22" s="1" t="s">
         <v>65</v>
@@ -3195,7 +3196,7 @@
         <v>1696680</v>
       </c>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B23" s="3"/>
       <c r="G23" s="1" t="s">
         <v>66</v>
@@ -3229,7 +3230,7 @@
         <v>1315769</v>
       </c>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.4">
       <c r="G24" s="1" t="s">
         <v>67</v>
       </c>
@@ -3262,7 +3263,7 @@
         <v>534140</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.4">
       <c r="G25" s="1" t="s">
         <v>68</v>
       </c>
@@ -3295,7 +3296,7 @@
         <v>87972</v>
       </c>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.4">
       <c r="G26" s="1" t="s">
         <v>71</v>
       </c>
@@ -3327,7 +3328,7 @@
         <v>324000</v>
       </c>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.4">
       <c r="G27" s="1" t="s">
         <v>72</v>
       </c>
@@ -3359,7 +3360,7 @@
         <v>1232000</v>
       </c>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.4">
       <c r="G28" s="63" t="s">
         <v>79</v>
       </c>
@@ -3414,28 +3415,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:M26"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D36" sqref="D35:D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="4.625" customWidth="1"/>
-    <col min="2" max="2" width="17.25" customWidth="1"/>
-    <col min="3" max="3" width="12.125" style="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.59765625" customWidth="1"/>
+    <col min="2" max="2" width="17.19921875" customWidth="1"/>
+    <col min="3" max="3" width="12.09765625" style="21" bestFit="1" customWidth="1"/>
     <col min="4" max="11" width="11" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B2" s="20" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>95</v>
       </c>
@@ -3444,7 +3445,7 @@
         <v>152767315</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
         <v>96</v>
       </c>
@@ -3453,7 +3454,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
         <v>97</v>
       </c>
@@ -3462,7 +3463,7 @@
         <v>128001715.91</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
         <v>98</v>
       </c>
@@ -3471,7 +3472,7 @@
         <v>24465599.090000004</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B9" s="20" t="s">
         <v>99</v>
       </c>
@@ -3482,7 +3483,7 @@
         <v>33610000</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.4">
       <c r="L10">
         <v>152767315</v>
       </c>
@@ -3490,7 +3491,7 @@
         <v>152767315</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
         <v>100</v>
       </c>
@@ -3507,7 +3508,7 @@
         <v>0.22000779420650288</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
         <v>101</v>
       </c>
@@ -3516,7 +3517,7 @@
         <v>152767315</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
         <v>102</v>
       </c>
@@ -3549,12 +3550,12 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B15" s="20" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
         <v>105</v>
       </c>
@@ -3562,7 +3563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
         <v>106</v>
       </c>
@@ -3571,7 +3572,7 @@
         <v>8000000</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B19" t="s">
         <v>107</v>
       </c>
@@ -3580,7 +3581,7 @@
         <v>2400000</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
         <v>108</v>
       </c>
@@ -3589,7 +3590,7 @@
         <v>400000</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B21" t="s">
         <v>109</v>
       </c>
@@ -3598,7 +3599,7 @@
         <v>90000</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
         <v>110</v>
       </c>
@@ -3607,7 +3608,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
         <v>111</v>
       </c>
@@ -3616,7 +3617,7 @@
         <v>400000</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
         <v>112</v>
       </c>
@@ -3625,7 +3626,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
         <v>113</v>
       </c>
@@ -3634,7 +3635,7 @@
         <v>11830000</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
         <v>103</v>
       </c>
@@ -3678,38 +3679,38 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:V25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U10" sqref="U10"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.375" customWidth="1"/>
-    <col min="2" max="2" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.625" customWidth="1"/>
-    <col min="5" max="11" width="6.75" style="35" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="6.75" style="35" customWidth="1"/>
+    <col min="1" max="1" width="3.3984375" customWidth="1"/>
+    <col min="2" max="2" width="7.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.59765625" customWidth="1"/>
+    <col min="5" max="11" width="6.69921875" style="35" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="6.69921875" style="35" customWidth="1"/>
     <col min="14" max="14" width="6" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="6" customWidth="1"/>
-    <col min="16" max="16" width="7.25" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.25" customWidth="1"/>
-    <col min="18" max="18" width="4.125" customWidth="1"/>
-    <col min="19" max="19" width="4.875" customWidth="1"/>
+    <col min="16" max="16" width="7.19921875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.19921875" customWidth="1"/>
+    <col min="18" max="18" width="4.09765625" customWidth="1"/>
+    <col min="19" max="19" width="4.8984375" customWidth="1"/>
     <col min="20" max="20" width="7.5" style="21" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.625" style="21" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.59765625" style="21" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="11" style="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A1" s="26"/>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
@@ -3729,7 +3730,7 @@
       <c r="Q1" s="26"/>
       <c r="R1" s="26"/>
     </row>
-    <row r="2" spans="1:22" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.4">
       <c r="A2" s="27"/>
       <c r="B2" s="73" t="s">
         <v>135</v>
@@ -3760,7 +3761,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="27"/>
       <c r="B3" s="76" t="s">
         <v>123</v>
@@ -3807,7 +3808,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A4" s="28"/>
       <c r="B4" s="76"/>
       <c r="C4" s="77"/>
@@ -3858,7 +3859,7 @@
         <v>909.09090909090912</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A5" s="26"/>
       <c r="B5" s="29" t="s">
         <v>125</v>
@@ -3922,7 +3923,7 @@
       </c>
       <c r="R5" s="26"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A6" s="26"/>
       <c r="B6" s="29" t="s">
         <v>126</v>
@@ -3987,7 +3988,7 @@
       </c>
       <c r="R6" s="26"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A7" s="26"/>
       <c r="B7" s="29" t="s">
         <v>127</v>
@@ -4051,7 +4052,7 @@
       </c>
       <c r="R7" s="26"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A8" s="26"/>
       <c r="B8" s="29" t="s">
         <v>127</v>
@@ -4116,7 +4117,7 @@
       </c>
       <c r="R8" s="26"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A9" s="26"/>
       <c r="B9" s="29" t="s">
         <v>125</v>
@@ -4180,7 +4181,7 @@
       </c>
       <c r="R9" s="26"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A10" s="26"/>
       <c r="B10" s="29" t="s">
         <v>128</v>
@@ -4244,7 +4245,7 @@
       </c>
       <c r="R10" s="26"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A11" s="26"/>
       <c r="B11" s="29" t="s">
         <v>129</v>
@@ -4308,7 +4309,7 @@
       </c>
       <c r="R11" s="26"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A12" s="26"/>
       <c r="B12" s="29" t="s">
         <v>130</v>
@@ -4372,7 +4373,7 @@
       </c>
       <c r="R12" s="26"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A13" s="26"/>
       <c r="B13" s="29" t="s">
         <v>131</v>
@@ -4436,7 +4437,7 @@
       </c>
       <c r="R13" s="26"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A14" s="26"/>
       <c r="B14" s="29" t="s">
         <v>132</v>
@@ -4500,7 +4501,7 @@
       </c>
       <c r="R14" s="26"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A15" s="26"/>
       <c r="B15" s="29">
         <v>150</v>
@@ -4564,7 +4565,7 @@
       </c>
       <c r="R15" s="26"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A16" s="26"/>
       <c r="B16" s="29">
         <v>180</v>
@@ -4628,7 +4629,7 @@
       </c>
       <c r="R16" s="26"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A17" s="26"/>
       <c r="B17" s="29">
         <v>200</v>
@@ -4692,7 +4693,7 @@
       </c>
       <c r="R17" s="26"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A18" s="26"/>
       <c r="B18" s="29">
         <v>300</v>
@@ -4756,7 +4757,7 @@
       </c>
       <c r="R18" s="26"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A19" s="26"/>
       <c r="B19" s="29">
         <v>150</v>
@@ -4820,7 +4821,7 @@
       </c>
       <c r="R19" s="26"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A20" s="26"/>
       <c r="B20" s="29">
         <v>180</v>
@@ -4884,7 +4885,7 @@
       </c>
       <c r="R20" s="26"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A21" s="26"/>
       <c r="B21" s="29">
         <v>200</v>
@@ -4948,7 +4949,7 @@
       </c>
       <c r="R21" s="26"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A22" s="26"/>
       <c r="B22" s="29">
         <v>300</v>
@@ -5012,7 +5013,7 @@
       </c>
       <c r="R22" s="26"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A23" s="26"/>
       <c r="B23" s="29" t="s">
         <v>133</v>
@@ -5076,7 +5077,7 @@
       </c>
       <c r="R23" s="26"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A24" s="26"/>
       <c r="B24" s="29" t="s">
         <v>134</v>
@@ -5140,7 +5141,7 @@
       </c>
       <c r="R24" s="26"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A25" s="26"/>
       <c r="B25" s="26"/>
       <c r="C25" s="26"/>
